--- a/public/template_hr.xlsx
+++ b/public/template_hr.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-payroll\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF66E671-BB33-4E2B-92F4-83FE93A724DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4547E8C1-F7DE-4773-88FA-8CC43DE28BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imported Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Employee ID</t>
   </si>
@@ -71,6 +82,9 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>Rest</t>
   </si>
 </sst>
 </file>
@@ -412,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,11 +448,10 @@
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,9 +498,12 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
     </row>
